--- a/doc/MenuFormat.xlsx
+++ b/doc/MenuFormat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="10755" windowHeight="6930" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="10755" windowHeight="6930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Category1" sheetId="1" r:id="rId1"/>
@@ -17,20 +17,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Chinese_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>English_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Sequence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -204,6 +196,17 @@
   </si>
   <si>
     <t>5. Dish里面的hotLevel, 取值范围0-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstLanguage_Name</t>
+  </si>
+  <si>
+    <t>SecondLanguage_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstLanguage_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,13 +554,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
     <col min="4" max="4" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -566,13 +569,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -580,10 +583,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -594,10 +597,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -614,13 +617,13 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="13.125" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
   </cols>
@@ -630,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -647,10 +650,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -664,10 +667,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -681,10 +684,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -698,10 +701,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -720,14 +723,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="13.875" customWidth="1"/>
     <col min="5" max="5" width="14.625" customWidth="1"/>
   </cols>
@@ -737,28 +740,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -766,10 +769,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -795,10 +798,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
         <v>33</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -824,10 +827,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -853,10 +856,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -882,10 +885,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -911,10 +914,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -940,10 +943,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -969,10 +972,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -998,10 +1001,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1027,10 +1030,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -1061,7 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -1072,27 +1075,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/doc/MenuFormat.xlsx
+++ b/doc/MenuFormat.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="188">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,134 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>火锅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hot pot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面食</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noodles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蔬菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肉类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汤面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>干拌面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dry noodle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>soup noodle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vegetables</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛肉拌面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猪肉拌面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊汤面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羊肉片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛肉片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>菠菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bocai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shengcai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beef slice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lamb slice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dumpling noodle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lamb soup noodle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pork noodle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>beef noodle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香菜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肉丸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meat ball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiangcai</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5. Dish里面的hotLevel, 取值范围0-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -207,6 +79,709 @@
   </si>
   <si>
     <t>FirstLanguage_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍黄瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸辣爽口木耳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black Fungus Salad with Vinegar&amp; Chilli Sauce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土钵擂辣椒皮蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cucumber Salad with Vineger&amp; Crushed Galic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香菜拌卤豆皮</t>
+  </si>
+  <si>
+    <t>Tofu skin with Coriander and Garlic &amp; Soy sauce</t>
+  </si>
+  <si>
+    <t>Spicy Preserved-egg with Crushed Chilli</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hunan Style Dry Beef with Chilli Oil</t>
+  </si>
+  <si>
+    <t>麻辣牛肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slices of Spiced Pork Knuckle with Chilli Oil &amp; Crushed Garlic</t>
+  </si>
+  <si>
+    <t>红油卤肘片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STIR-FRIED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLD DISH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Wok-fried Pork with Chilli and soy beans </t>
+  </si>
+  <si>
+    <t>湖南小炒肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fried Cooked Pork belly with dried bean curd</t>
+  </si>
+  <si>
+    <t>香干回锅肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fried Marinated Beef with Fried Egg &amp;Chilli</t>
+  </si>
+  <si>
+    <t>卤牛肉炒包蛋下锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fried Beef with Pickle Chilli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>野山椒炒牛肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fried Beef with Cumin and Chilli</t>
+  </si>
+  <si>
+    <t>孜然牛肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fried  Pork with Chilli and Fried Egg</t>
+  </si>
+  <si>
+    <t>二代农家一碗香</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fried Pork Ribs with Cumin and Chilli</t>
+  </si>
+  <si>
+    <t>孜然排骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Traditional Sweet &amp;  Sour Pork ribs</t>
+  </si>
+  <si>
+    <t>古法糖醋排骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Stir-fried lamb with Chilli </t>
+  </si>
+  <si>
+    <t>小炒羊腿肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fried Squid with Spicy and Sour Sauce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸辣鱿鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweet &amp; Sour Pork</t>
+  </si>
+  <si>
+    <t>酸甜咕老肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fried Chicken Gizzard with Pickle Chilli&amp;Cowpea</t>
+  </si>
+  <si>
+    <t>酸豆角炒鸡胗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸萝卜炒卤牛肚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fried Stewed Beef Tripe with Pickle Chinese Radish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pan-fried Tofu with Pork and Chinese leek</t>
+  </si>
+  <si>
+    <t>砂锅韭菜煎豆腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scrambled Eggs with Tomatoes</t>
+  </si>
+  <si>
+    <t>西红柿炒鸡蛋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fried Green beans with Dry chilli and Pork mince</t>
+  </si>
+  <si>
+    <t>干煸四季豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fried Cauliflower with Garlic &amp; Dry chilli</t>
+  </si>
+  <si>
+    <t>口味花菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fried cabbage with Soy sauce and Vinegar</t>
+  </si>
+  <si>
+    <t>手撕包菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fried Seasonal Vegetables</t>
+  </si>
+  <si>
+    <t>清炒时蔬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Stir- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>fried beef with pork</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and Chilli</t>
+    </r>
+  </si>
+  <si>
+    <t>五花肉炒牛肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fried Pork with Cucumber and Chilli sauce</t>
+  </si>
+  <si>
+    <t>老干妈黄瓜炒肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fried Green Beans with Dried Oliver Vegetable and Chilli</t>
+  </si>
+  <si>
+    <t>榄菜四季豆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2nd Generation stir-fried  pork with chilli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣椒炒肉2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fried pork ear with celery and chilli</t>
+  </si>
+  <si>
+    <t>芹菜炒猪耳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minced Chicken with Chilli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典碎碎鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芹菜香干</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fried Tofu with pork mince and chilli</t>
+  </si>
+  <si>
+    <t>湖南家常豆腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fried Dried Tofu with Celery and Chilli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stir-fried beef with oyster sauce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚝油牛肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特色菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPECIAL COOKED DISH</t>
+  </si>
+  <si>
+    <t>Chairman Mao’s Stewed pork with Soy sauce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛嗲嗲红烧肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steamed Pork belly with Salted Black bean and Chilli oil</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家乡坛子肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep-fried Been curd with Bone Soup</t>
+  </si>
+  <si>
+    <t>骨汤油豆腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Spicy Pork feet </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二代大碗爆辣猪脚王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hot&amp;Spicy prawns in dry clay pot</t>
+  </si>
+  <si>
+    <t>秘制干锅香辣虾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spicy lamb ribs</t>
+  </si>
+  <si>
+    <t>绝味手撕羊排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Spicy crispy fish </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香辣香酥鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boiled Fish with Bean Sprouts in Hot Chili Oil</t>
+  </si>
+  <si>
+    <t>沸腾鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>General Tso's Chicken</t>
+  </si>
+  <si>
+    <t>左宗棠鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOUP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slow Cooked Chinese Radish with Bone Soup</t>
+  </si>
+  <si>
+    <t>骨汁白萝卜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锅仔类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRON WOK DISH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slow Cooked Chicken with Black Mushroom and Brown Sauce</t>
+  </si>
+  <si>
+    <t>干锅黄焖鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slow Cooked Pork ribs with Chilli and Brown Sauce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄焖排骨钵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Griddle cooked Spicy Duck </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干锅手撕鸭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pan-fried Pork intestines with Chilli</t>
+  </si>
+  <si>
+    <t>干锅肥肠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pan-fried salted Grouper with Chilli</t>
+  </si>
+  <si>
+    <t>干锅香辣石斑鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>干锅土豆片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RICE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Fried rice with Soy sauce </t>
+  </si>
+  <si>
+    <t>Pan-fried Sliced Potato with Pork and Chilli</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南酱油蛋炒饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆豉鲮鱼蛋炒饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fried rice with Salted fish &amp;Black beans</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pumpkin pie 6 pices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pumpkin pie 12 pices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜饼6个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜饼12个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老面馒头3个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steamed bread 3 pices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老面馒头6个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Steamed bread 6 pices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Steam rice per person </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRINKS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>330ml 软饮料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Soft Drink </t>
+  </si>
+  <si>
+    <t>姜汁汽水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ginger Beer</t>
+  </si>
+  <si>
+    <t>Lemon&amp; Lime Bitter</t>
+  </si>
+  <si>
+    <t>柠檬汽水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果汁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Juice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZICO Coconut Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>椰子水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400ml 矿泉水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring Water 400ml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>750ml 矿泉水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring Water 750ml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450ml 气泡水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sparklling Water 450ml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>750ml 气泡水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sparklling Water 750ml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chinese Tea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸梅汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syrup of plum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰红茶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lemon Iced Tea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>粉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>面</t>
+    </r>
+  </si>
+  <si>
+    <t>RICE NOODLE OR NOODLE</t>
+  </si>
+  <si>
+    <r>
+      <t>牛腩粉（面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Rice noodle/noodle with braised beef tenderloin</t>
+  </si>
+  <si>
+    <t>麻辣牛肉粉（面）</t>
+  </si>
+  <si>
+    <r>
+      <t>红烧排骨粉（面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice noodle/noodle with braised Pork ribs</t>
+  </si>
+  <si>
+    <t>Rice noodle/noodle with spicy dry beef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杂酱粉（面）</t>
+  </si>
+  <si>
+    <t>Rice noodle/noodle with Pork mince</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农家小炒肉粉（面)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice noodle/noodle with stir-fry Pork with chilli</t>
+  </si>
+  <si>
+    <t>isSoldOut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abbreviation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>automerge_whilechoose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purchaseType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowFlavor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isPromotion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>originPrice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +789,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +804,25 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.5"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -253,8 +847,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -551,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A9" sqref="A9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -569,10 +1169,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -583,27 +1183,111 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -614,10 +1298,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -633,10 +1317,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -653,7 +1337,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -662,38 +1346,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="14.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
+        <v>88</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -701,16 +1385,84 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -721,10 +1473,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B30" workbookViewId="0">
+      <selection activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -735,15 +1487,15 @@
     <col min="5" max="5" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -763,16 +1515,40 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L1" t="s">
+        <v>182</v>
+      </c>
+      <c r="M1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N1" t="s">
+        <v>184</v>
+      </c>
+      <c r="O1" t="s">
+        <v>185</v>
+      </c>
+      <c r="P1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -781,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>3.2</v>
+        <v>6.8</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -792,16 +1568,37 @@
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -810,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>4.5999999999999996</v>
+        <v>8</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -821,25 +1618,46 @@
       <c r="I3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>5.0999999999999996</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -850,25 +1668,46 @@
       <c r="I4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="14.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>2.2000000000000002</v>
+        <v>11.8</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -879,25 +1718,46 @@
       <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="14.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.8</v>
+        <v>14.8</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -906,85 +1766,148 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="14.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>81</v>
+        <v>16.8</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="14.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>45</v>
+        <v>18.8</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="14.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>32</v>
+        <v>20.8</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -993,27 +1916,48 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="14.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>22.8</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1024,39 +1968,3282 @@
       <c r="I10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="14.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11">
+        <v>24.8</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="14.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>22.8</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="14.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>20.8</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="14.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>22.8</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="14.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>24.8</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="14.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>24.8</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="14.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>24.8</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="14.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>24.8</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="14.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>24.8</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="14.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>26.8</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="14.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>20.8</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="14.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22">
+        <v>15</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>16.8</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="14.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23">
+        <v>16</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>18.8</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="14.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24">
+        <v>17</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>16.8</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="14.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25">
+        <v>18</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>16.8</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="14.25">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26">
+        <v>19</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>16.8</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="17.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>24.8</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="14.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>18.8</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="14.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>22.8</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="14.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>20.8</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="14.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>24.8</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="14.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32">
+        <v>25</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>24.8</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="14.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33">
+        <v>26</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>18.8</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="14.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34">
+        <v>27</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>19.8</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="14.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35">
+        <v>28</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>22.8</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="14.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>14.8</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="14.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>14.8</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="14.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <v>18.8</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="14.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>97</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>26.8</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="14.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="14.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41">
+        <v>30.8</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="14.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="14.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="14.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>30.8</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" ht="14.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>22.8</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="14.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>26.8</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" ht="14.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>26.8</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>1</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="14.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>119</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>28.8</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="14.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>26.8</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" ht="14.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+      <c r="F50">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>1</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" ht="14.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+      <c r="E51">
+        <v>5</v>
+      </c>
+      <c r="F51">
+        <v>20.8</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="14.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>6</v>
+      </c>
+      <c r="F52">
+        <v>14.8</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="14.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53">
+        <v>6</v>
+      </c>
+      <c r="F53">
+        <v>16.8</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="14.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54">
+        <v>6</v>
+      </c>
+      <c r="F54">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>1</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="14.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55">
+        <v>6</v>
+      </c>
+      <c r="F55">
+        <v>14.8</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="14.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>6</v>
+      </c>
+      <c r="F56">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>1</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" ht="14.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>6</v>
+      </c>
+      <c r="F57">
+        <v>14.8</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="14.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
+      </c>
+      <c r="E58">
+        <v>6</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" ht="14.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>7</v>
+      </c>
+      <c r="F59">
+        <v>3</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="16.5">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>7</v>
+      </c>
+      <c r="F60">
+        <v>3.5</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" ht="14.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>149</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61">
+        <v>7</v>
+      </c>
+      <c r="F61">
+        <v>3.5</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" ht="14.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>150</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62">
+        <v>7</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" ht="14.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>7</v>
+      </c>
+      <c r="F63">
+        <v>3.5</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="14.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D64">
+        <v>6</v>
+      </c>
+      <c r="E64">
+        <v>7</v>
+      </c>
+      <c r="F64">
+        <v>2.5</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" ht="14.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D65">
+        <v>7</v>
+      </c>
+      <c r="E65">
+        <v>7</v>
+      </c>
+      <c r="F65">
+        <v>5.5</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="14.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D66">
+        <v>8</v>
+      </c>
+      <c r="E66">
+        <v>7</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="14.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67">
+        <v>9</v>
+      </c>
+      <c r="E67">
+        <v>7</v>
+      </c>
+      <c r="F67">
+        <v>5.5</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>1</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" ht="14.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68">
+        <v>7</v>
+      </c>
+      <c r="F68">
+        <v>1.5</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>1</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" ht="14.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D69">
+        <v>11</v>
+      </c>
+      <c r="E69">
+        <v>7</v>
+      </c>
+      <c r="F69">
+        <v>2.5</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>1</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="14.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D70">
+        <v>12</v>
+      </c>
+      <c r="E70">
+        <v>7</v>
+      </c>
+      <c r="F70">
+        <v>2.5</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+      <c r="M70">
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" ht="16.5">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>8</v>
+      </c>
+      <c r="F71">
+        <v>14</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="16.5">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72">
+        <v>8</v>
+      </c>
+      <c r="F72">
+        <v>14</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="16.5">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>8</v>
+      </c>
+      <c r="F73">
+        <v>14</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="16.5">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74">
+        <v>8</v>
+      </c>
+      <c r="F74">
+        <v>12</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" ht="16.5">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>8</v>
+      </c>
+      <c r="F75">
+        <v>12</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>1</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1095,7 +5282,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
